--- a/Test Scripts_Entregable1.xlsx
+++ b/Test Scripts_Entregable1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>Mexico</t>
   </si>
@@ -300,6 +300,9 @@
 - Módulo "INVENTARIO DRECURSOS HUMANOS" deshabilitado
 - Módulo "RECLUTAMIENTO Y SELECCIÓN" deshabilitado
 - Módulo "CONFIGURACIÓN" deshabilitado</t>
+  </si>
+  <si>
+    <t>Prueba</t>
   </si>
 </sst>
 </file>
@@ -769,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -923,7 +926,11 @@
       <c r="H6" s="7"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" ht="207.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:9" ht="207.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+    </row>
     <row r="8" spans="1:9" ht="315" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:9" ht="267.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:9" ht="163.5" customHeight="1" x14ac:dyDescent="0.25"/>
